--- a/trunk/Bao Cao Lien Tuc/DanhSachLoi.xlsx
+++ b/trunk/Bao Cao Lien Tuc/DanhSachLoi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>NHÓM: MONEY10
 MÔN: TMĐT
@@ -85,10 +85,7 @@
     <t>Quản lý giao dịch _ Nạp tiền</t>
   </si>
   <si>
-    <t>_ không lỗi và cũng không có thông báo đã nạp thành công chưa.</t>
-  </si>
-  <si>
-    <t>_ kiểm tra trong csdl với số thẻ đó nhưng tiền ko tăng -&gt; là sao ?</t>
+    <t>_ nhập số thẻ đúng (copy từ csdl tình trạng =1, =0 luôn) nhưng cứ báo tài khoản không đúng.</t>
   </si>
 </sst>
 </file>
@@ -188,14 +185,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,7 +498,7 @@
   <dimension ref="B3:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,13 +512,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -530,7 +527,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -565,7 +562,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
@@ -574,7 +571,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -595,7 +592,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -611,16 +608,13 @@
     <row r="11" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="4"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
       <c r="E12" s="4"/>
       <c r="F12" s="1"/>
     </row>

--- a/trunk/Bao Cao Lien Tuc/DanhSachLoi.xlsx
+++ b/trunk/Bao Cao Lien Tuc/DanhSachLoi.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Admin_NH" sheetId="1" r:id="rId1"/>
@@ -91,8 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,7 +283,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -318,7 +317,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -494,24 +492,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="5.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="5" customWidth="1"/>
-    <col min="4" max="5" width="68.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="22.5">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
@@ -520,14 +519,14 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="16.5">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" s="6" customFormat="1" ht="16.5">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -544,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="16.5">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -561,7 +560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="16.5">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
@@ -570,7 +569,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="33">
       <c r="B8" s="7"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
@@ -579,7 +578,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="33">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -592,7 +591,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="33">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -605,27 +604,27 @@
       <c r="E10" s="4"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="16.5">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="16.5">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="E12" s="4"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="16.5">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="16.5">
       <c r="B14" s="3">
         <v>4</v>
       </c>
@@ -634,14 +633,14 @@
       <c r="E14" s="4"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="16.5">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="16.5">
       <c r="B16" s="3">
         <v>5</v>
       </c>
@@ -650,21 +649,21 @@
       <c r="E16" s="4"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="16.5">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="16.5">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="16.5">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -681,24 +680,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
